--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F066EB31-3F9C-4D82-88B2-56EAACF86B81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307B113-BBD6-4EB0-824B-E7F6823C5AEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>dueDate</t>
   </si>
   <si>
-    <t>Linda Anderson</t>
+    <t>Linda</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>43133</v>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307B113-BBD6-4EB0-824B-E7F6823C5AEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC2D173-12DA-4247-B951-6145029B69E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC2D173-12DA-4247-B951-6145029B69E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0644E5D5-F04C-4F70-8313-BEE91F356034}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
     <sheet name="Trackers" sheetId="3" r:id="rId2"/>
     <sheet name="PerfomanceReview" sheetId="4" r:id="rId3"/>
+    <sheet name="AttendanceRecord" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>jobTitle</t>
   </si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>Linda</t>
+  </si>
+  <si>
+    <t>Linda Anderson</t>
   </si>
 </sst>
 </file>
@@ -544,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1883161-A496-4D6B-976B-8B595A3BD309}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,4 +599,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C443F-4452-4D53-B2D4-563E7AA15B1B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0644E5D5-F04C-4F70-8313-BEE91F356034}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4B098-1FFD-4763-BD8B-FEF6F3A8F8CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
     <sheet name="Trackers" sheetId="3" r:id="rId2"/>
     <sheet name="PerfomanceReview" sheetId="4" r:id="rId3"/>
-    <sheet name="AttendanceRecord" sheetId="5" r:id="rId4"/>
+    <sheet name="EditTrackers" sheetId="6" r:id="rId4"/>
+    <sheet name="AttendanceRecord" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>jobTitle</t>
   </si>
@@ -78,10 +79,13 @@
     <t>dueDate</t>
   </si>
   <si>
-    <t>Linda</t>
-  </si>
-  <si>
     <t>Linda Anderson</t>
+  </si>
+  <si>
+    <t>Thomas Fleming</t>
+  </si>
+  <si>
+    <t>charushila mahajan</t>
   </si>
 </sst>
 </file>
@@ -91,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +114,12 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -140,6 +150,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +517,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +560,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,10 +613,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A8480-75AB-450B-9601-670CD9AAA213}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C443F-4452-4D53-B2D4-563E7AA15B1B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +675,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4B098-1FFD-4763-BD8B-FEF6F3A8F8CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB410FA-4C29-4A85-8B0E-1E441FCE066A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
     <sheet name="Trackers" sheetId="3" r:id="rId2"/>
-    <sheet name="PerfomanceReview" sheetId="4" r:id="rId3"/>
+    <sheet name="PerformanceReview" sheetId="4" r:id="rId3"/>
     <sheet name="EditTrackers" sheetId="6" r:id="rId4"/>
-    <sheet name="AttendanceRecord" sheetId="5" r:id="rId5"/>
+    <sheet name="EditKPI" sheetId="7" r:id="rId5"/>
+    <sheet name="EditPerformanceReview" sheetId="8" r:id="rId6"/>
+    <sheet name="AttendanceRecord" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>jobTitle</t>
   </si>
@@ -86,6 +88,9 @@
   </si>
   <si>
     <t>charushila mahajan</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -468,7 +473,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1883161-A496-4D6B-976B-8B595A3BD309}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A8480-75AB-450B-9601-670CD9AAA213}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -656,6 +661,92 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F05F2C0-9235-4B98-BECE-A06715258EE7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95272E0-7B2D-4B05-B564-1B4CBB4123CD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42402</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42736</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C443F-4452-4D53-B2D4-563E7AA15B1B}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB410FA-4C29-4A85-8B0E-1E441FCE066A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186C9BC-FC4F-4A31-89F4-916EF3398FEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
     <sheet name="Trackers" sheetId="3" r:id="rId2"/>
     <sheet name="PerformanceReview" sheetId="4" r:id="rId3"/>
-    <sheet name="EditTrackers" sheetId="6" r:id="rId4"/>
-    <sheet name="EditKPI" sheetId="7" r:id="rId5"/>
-    <sheet name="EditPerformanceReview" sheetId="8" r:id="rId6"/>
-    <sheet name="AttendanceRecord" sheetId="5" r:id="rId7"/>
+    <sheet name="LoginInvalid" sheetId="9" r:id="rId4"/>
+    <sheet name="loginValid" sheetId="10" r:id="rId5"/>
+    <sheet name="EditTrackers" sheetId="6" r:id="rId6"/>
+    <sheet name="EditKPI" sheetId="7" r:id="rId7"/>
+    <sheet name="EditPerformanceReview" sheetId="8" r:id="rId8"/>
+    <sheet name="AttendanceRecord" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="29">
   <si>
     <t>jobTitle</t>
   </si>
@@ -91,6 +93,33 @@
   </si>
   <si>
     <t>sss</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>alertMSG</t>
+  </si>
+  <si>
+    <t>Username cannot be empty</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
   </si>
 </sst>
 </file>
@@ -100,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +155,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -156,6 +197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +518,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +567,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1883161-A496-4D6B-976B-8B595A3BD309}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -618,6 +663,104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24E1B4-8CF5-4A6D-A14A-C58701AF2C8E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C083B2BB-EFC2-40A0-80D0-4F338338468A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A8480-75AB-450B-9601-670CD9AAA213}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -660,7 +803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F05F2C0-9235-4B98-BECE-A06715258EE7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -706,7 +849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95272E0-7B2D-4B05-B564-1B4CBB4123CD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -746,7 +889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C443F-4452-4D53-B2D4-563E7AA15B1B}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186C9BC-FC4F-4A31-89F4-916EF3398FEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627E4F47-EE8D-4F85-8ADB-EE91CACC24F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="4" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>jobTitle</t>
   </si>
@@ -107,13 +107,22 @@
     <t>admin123</t>
   </si>
   <si>
+    <t>alertMSG</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>Admin123</t>
   </si>
   <si>
+    <t>invalid</t>
+  </si>
+  <si>
     <t>Invalid credentials</t>
-  </si>
-  <si>
-    <t>alertMSG</t>
   </si>
   <si>
     <t>Username cannot be empty</t>
@@ -664,61 +673,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24E1B4-8CF5-4A6D-A14A-C58701AF2C8E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,31 +766,87 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C083B2BB-EFC2-40A0-80D0-4F338338468A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627E4F47-EE8D-4F85-8ADB-EE91CACC24F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F90D1-0BB6-4282-8498-F549F26B20BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="4" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F90D1-0BB6-4282-8498-F549F26B20BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7EDBF-4EFE-4D5B-98DB-4250854F2A2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="4" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/ExcelSheet/OrangeHrm.xlsx
+++ b/src/test/resources/ExcelSheet/OrangeHrm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7EDBF-4EFE-4D5B-98DB-4250854F2A2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB6B06-A9C4-4A34-9F81-817822477408}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="4" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{3DDDAB6D-2287-4D35-8AC7-D3D60F9E8391}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,6 @@
     <t>Jasmine Morgan</t>
   </si>
   <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>Hannah Flores</t>
-  </si>
-  <si>
     <t>supervisorName</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>sai honey</t>
+  </si>
+  <si>
+    <t>jeya priya</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,10 +602,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -618,13 +618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1883161-A496-4D6B-976B-8B595A3BD309}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -636,24 +636,24 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4">
         <v>43133</v>
@@ -688,71 +688,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C083B2BB-EFC2-40A0-80D0-4F338338468A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -782,71 +782,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -885,10 +885,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -958,13 +958,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
